--- a/src/pages/english/md/word-review.xlsx
+++ b/src/pages/english/md/word-review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25515" windowHeight="11025"/>
+    <workbookView windowHeight="18075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="260">
   <si>
     <t>Bible</t>
   </si>
@@ -619,31 +619,181 @@
     <t>experience</t>
   </si>
   <si>
+    <t>politics-政治</t>
+  </si>
+  <si>
     <t>or co-educational</t>
   </si>
   <si>
     <t>tier</t>
   </si>
   <si>
+    <t>carrot</t>
+  </si>
+  <si>
     <t>interact–互相作用</t>
   </si>
   <si>
     <t>first tier universities</t>
   </si>
   <si>
+    <t>strawberry jam</t>
+  </si>
+  <si>
     <t>Master’s degree</t>
   </si>
   <si>
+    <t>blueberry jam</t>
+  </si>
+  <si>
     <t>doctorate</t>
   </si>
   <si>
+    <t>stove</t>
+  </si>
+  <si>
+    <t>neutral-中立的</t>
+  </si>
+  <si>
     <t>PhD</t>
   </si>
   <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
     <t>relative</t>
   </si>
   <si>
+    <t>squash</t>
+  </si>
+  <si>
+    <t>multi-task</t>
+  </si>
+  <si>
     <t>talkative</t>
+  </si>
+  <si>
+    <t>scissors</t>
+  </si>
+  <si>
+    <t>multi-tasking</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>scarf -scarves--围巾</t>
+  </si>
+  <si>
+    <t>leaf- leaves</t>
+  </si>
+  <si>
+    <t>snowboard</t>
+  </si>
+  <si>
+    <t>puddle</t>
+  </si>
+  <si>
+    <t>snowboarding</t>
+  </si>
+  <si>
+    <t>drugstore</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>pharmacy</t>
+  </si>
+  <si>
+    <t>october</t>
+  </si>
+  <si>
+    <t>jacket</t>
+  </si>
+  <si>
+    <t>ski board</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>frozen lake</t>
+  </si>
+  <si>
+    <t>boots</t>
+  </si>
+  <si>
+    <t>frozen river</t>
+  </si>
+  <si>
+    <t>wound</t>
+  </si>
+  <si>
+    <t>harvest</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>triple pay</t>
+  </si>
+  <si>
+    <t>brush</t>
+  </si>
+  <si>
+    <t>paint brush</t>
+  </si>
+  <si>
+    <t>mid-autumn festival</t>
+  </si>
+  <si>
+    <t>pencil case</t>
+  </si>
+  <si>
+    <t>skiing</t>
+  </si>
+  <si>
+    <t>Celsius</t>
+  </si>
+  <si>
+    <t>coat</t>
+  </si>
+  <si>
+    <t>ice skating</t>
+  </si>
+  <si>
+    <t>snowball fight</t>
+  </si>
+  <si>
+    <t>below zero</t>
+  </si>
+  <si>
+    <t>sledding</t>
+  </si>
+  <si>
+    <t>hibernate</t>
+  </si>
+  <si>
+    <t>mahjong</t>
+  </si>
+  <si>
+    <t>wild boar</t>
+  </si>
+  <si>
+    <t>Christmas eve</t>
+  </si>
+  <si>
+    <t>astigmatism</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Christmas markets</t>
   </si>
 </sst>
 </file>
@@ -672,14 +822,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,13 +852,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,14 +914,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -801,8 +936,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,18 +974,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -848,163 +1154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,15 +1179,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,21 +1216,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1115,6 +1241,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1123,145 +1273,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1620,10 +1770,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2081,9 +2231,11 @@
       <c r="B20" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
         <v>133</v>
       </c>
@@ -2104,6 +2256,7 @@
       <c r="D21" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
         <v>139</v>
       </c>
@@ -2124,6 +2277,7 @@
       <c r="D22" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
         <v>145</v>
       </c>
@@ -2144,6 +2298,7 @@
       <c r="D23" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
         <v>151</v>
       </c>
@@ -2164,6 +2319,7 @@
       <c r="D24" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
         <v>157</v>
       </c>
@@ -2184,6 +2340,7 @@
       <c r="D25" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
         <v>163</v>
       </c>
@@ -2198,9 +2355,11 @@
       <c r="B26" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
         <v>168</v>
       </c>
@@ -2215,9 +2374,11 @@
       <c r="B27" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
         <v>173</v>
       </c>
@@ -2229,9 +2390,11 @@
       <c r="B28" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
         <v>177</v>
       </c>
@@ -2243,9 +2406,11 @@
       <c r="B29" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
         <v>181</v>
       </c>
@@ -2257,9 +2422,11 @@
       <c r="B30" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
         <v>185</v>
       </c>
@@ -2271,94 +2438,458 @@
       <c r="B31" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="1:6">
+      <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="1:6">
+      <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="1:6">
+      <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="1:6">
+      <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="B36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/pages/english/md/word-review.xlsx
+++ b/src/pages/english/md/word-review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18075"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="284">
   <si>
     <t>Bible</t>
   </si>
@@ -532,6 +532,9 @@
     <t>grammatical–符合语法规则的</t>
   </si>
   <si>
+    <t>Eve</t>
+  </si>
+  <si>
     <t>interestingly</t>
   </si>
   <si>
@@ -544,6 +547,9 @@
     <t>coordinating–并列，同等的</t>
   </si>
   <si>
+    <t>duckling</t>
+  </si>
+  <si>
     <t>beauty - n</t>
   </si>
   <si>
@@ -556,6 +562,9 @@
     <t>subordinating-- 连接主句和从句的；从属的</t>
   </si>
   <si>
+    <t>branch - branches</t>
+  </si>
+  <si>
     <t>beautiful - adj</t>
   </si>
   <si>
@@ -568,6 +577,9 @@
     <t>auxiliary–辅助的，副的</t>
   </si>
   <si>
+    <t>magnifying glass</t>
+  </si>
+  <si>
     <t>beautify</t>
   </si>
   <si>
@@ -580,6 +592,9 @@
     <t>conditional–有条件的</t>
   </si>
   <si>
+    <t>magnify</t>
+  </si>
+  <si>
     <t>maximum</t>
   </si>
   <si>
@@ -589,6 +604,9 @@
     <t>bacteria–细菌</t>
   </si>
   <si>
+    <t>squirrel</t>
+  </si>
+  <si>
     <t>kind</t>
   </si>
   <si>
@@ -598,6 +616,9 @@
     <t>hikikomori–蛰居族-自闭的人</t>
   </si>
   <si>
+    <t>feather</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
@@ -607,6 +628,9 @@
     <t>co-author</t>
   </si>
   <si>
+    <t>caterpillar</t>
+  </si>
+  <si>
     <t>harden</t>
   </si>
   <si>
@@ -616,6 +640,9 @@
     <t>co-ed</t>
   </si>
   <si>
+    <t>stray cat</t>
+  </si>
+  <si>
     <t>experience</t>
   </si>
   <si>
@@ -625,6 +652,9 @@
     <t>or co-educational</t>
   </si>
   <si>
+    <t>melt</t>
+  </si>
+  <si>
     <t>tier</t>
   </si>
   <si>
@@ -634,18 +664,27 @@
     <t>interact–互相作用</t>
   </si>
   <si>
+    <t>Lantern Festival;</t>
+  </si>
+  <si>
     <t>first tier universities</t>
   </si>
   <si>
     <t>strawberry jam</t>
   </si>
   <si>
+    <t>shoot off firecrackers</t>
+  </si>
+  <si>
     <t>Master’s degree</t>
   </si>
   <si>
     <t>blueberry jam</t>
   </si>
   <si>
+    <t>light up</t>
+  </si>
+  <si>
     <t>doctorate</t>
   </si>
   <si>
@@ -655,6 +694,9 @@
     <t>neutral-中立的</t>
   </si>
   <si>
+    <t>superstition</t>
+  </si>
+  <si>
     <t>PhD</t>
   </si>
   <si>
@@ -664,6 +706,9 @@
     <t>laptop</t>
   </si>
   <si>
+    <t>sticky rice or glutinous rice</t>
+  </si>
+  <si>
     <t>relative</t>
   </si>
   <si>
@@ -673,6 +718,9 @@
     <t>multi-task</t>
   </si>
   <si>
+    <t>circle</t>
+  </si>
+  <si>
     <t>talkative</t>
   </si>
   <si>
@@ -688,46 +736,70 @@
     <t>scarf -scarves--围巾</t>
   </si>
   <si>
+    <t>dotted clothes</t>
+  </si>
+  <si>
     <t>leaf- leaves</t>
   </si>
   <si>
     <t>snowboard</t>
   </si>
   <si>
+    <t>spring festival scrolls</t>
+  </si>
+  <si>
     <t>puddle</t>
   </si>
   <si>
     <t>snowboarding</t>
   </si>
   <si>
+    <t>calligraphy</t>
+  </si>
+  <si>
     <t>drugstore</t>
   </si>
   <si>
     <t>June</t>
   </si>
   <si>
+    <t>parade</t>
+  </si>
+  <si>
     <t>pharmacy</t>
   </si>
   <si>
     <t>october</t>
   </si>
   <si>
+    <t>blow trumpets blow horns</t>
+  </si>
+  <si>
     <t>jacket</t>
   </si>
   <si>
     <t>ski board</t>
   </si>
   <si>
+    <t>evil spirit</t>
+  </si>
+  <si>
     <t>skirt</t>
   </si>
   <si>
     <t>frozen lake</t>
   </si>
   <si>
+    <t>peak days</t>
+  </si>
+  <si>
     <t>boots</t>
   </si>
   <si>
     <t>frozen river</t>
+  </si>
+  <si>
+    <t>Spring Lantern Festival</t>
   </si>
   <si>
     <t>wound</t>
@@ -801,12 +873,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,8 +893,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,6 +914,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -843,7 +954,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,26 +991,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -905,32 +1008,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,7 +1053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +1071,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,19 +1149,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,7 +1167,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,7 +1197,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,109 +1233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,6 +1262,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1194,15 +1293,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1227,17 +1317,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,10 +1352,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1285,141 +1364,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1772,8 +1854,8 @@
   <sheetPr/>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2355,7 +2437,7 @@
       <c r="B26" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
         <v>167</v>
       </c>
@@ -2374,332 +2456,382 @@
       <c r="B27" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D29" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="D30" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>191</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="D31" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="D32" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="D33" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="D34" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>207</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>215</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>233</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>237</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>242</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>251</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>254</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>257</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>260</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2707,10 +2839,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2718,10 +2850,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2729,10 +2861,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2740,65 +2872,60 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C56" s="1"/>
+        <v>270</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>245</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>273</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C59" s="1"/>
+        <v>274</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C60" s="1"/>
+        <v>276</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2806,10 +2933,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2817,10 +2944,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2829,7 +2956,7 @@
     <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>

--- a/src/pages/english/md/word-review.xlsx
+++ b/src/pages/english/md/word-review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="22605" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="315">
   <si>
     <t>Bible</t>
   </si>
@@ -415,337 +415,415 @@
     <t>suspiciously</t>
   </si>
   <si>
+    <t>buy - bought - bought</t>
+  </si>
+  <si>
+    <t>badminton–羽毛球</t>
+  </si>
+  <si>
+    <t>CV-简历</t>
+  </si>
+  <si>
+    <t>investment</t>
+  </si>
+  <si>
+    <t>refusal</t>
+  </si>
+  <si>
+    <t>sleep - slept - slept</t>
+  </si>
+  <si>
+    <t>once every 2 weeks</t>
+  </si>
+  <si>
+    <t>résumé–简历</t>
+  </si>
+  <si>
+    <t>fitness</t>
+  </si>
+  <si>
+    <t>forgetful</t>
+  </si>
+  <si>
+    <t>write - wrote - written</t>
+  </si>
+  <si>
+    <t>specific</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>taipan</t>
+  </si>
+  <si>
+    <t>excitement</t>
+  </si>
+  <si>
     <t>Math</t>
   </si>
   <si>
-    <t>buy - bought - bought</t>
-  </si>
-  <si>
-    <t>badminton–羽毛球</t>
-  </si>
-  <si>
-    <t>CV-简历</t>
-  </si>
-  <si>
-    <t>investment</t>
-  </si>
-  <si>
-    <t>refusal</t>
+    <t>pronunciation</t>
+  </si>
+  <si>
+    <t>recent change</t>
+  </si>
+  <si>
+    <t>have you ever eaten a frog</t>
+  </si>
+  <si>
+    <t>venomous</t>
+  </si>
+  <si>
+    <t>motherly</t>
+  </si>
+  <si>
+    <t>lamp post</t>
   </si>
   <si>
     <t>science</t>
   </si>
   <si>
-    <t>sleep - slept - slept</t>
-  </si>
-  <si>
-    <t>once every 2 weeks</t>
-  </si>
-  <si>
-    <t>résumé–简历</t>
-  </si>
-  <si>
-    <t>fitness</t>
-  </si>
-  <si>
-    <t>forgetful</t>
+    <t>wake - woke - woken</t>
+  </si>
+  <si>
+    <t>I’ve gained some wieght</t>
+  </si>
+  <si>
+    <t>assuming-傲慢的</t>
+  </si>
+  <si>
+    <t>conclusion</t>
+  </si>
+  <si>
+    <t>fragile</t>
+  </si>
+  <si>
+    <t>bell</t>
   </si>
   <si>
     <t>english</t>
   </si>
   <si>
-    <t>write - wrote - written</t>
-  </si>
-  <si>
-    <t>specific</t>
-  </si>
-  <si>
-    <t>frog</t>
-  </si>
-  <si>
-    <t>taipan</t>
-  </si>
-  <si>
-    <t>excitement</t>
+    <t>take - took - taken</t>
+  </si>
+  <si>
+    <t>singular-单数</t>
+  </si>
+  <si>
+    <t>exclamatory-感叹的</t>
+  </si>
+  <si>
+    <t>spoonful</t>
+  </si>
+  <si>
+    <t>logo</t>
   </si>
   <si>
     <t>chemistry</t>
   </si>
   <si>
-    <t>pronunciation</t>
-  </si>
-  <si>
-    <t>recent change</t>
-  </si>
-  <si>
-    <t>have you ever eaten a frog</t>
-  </si>
-  <si>
-    <t>venomous</t>
-  </si>
-  <si>
-    <t>motherly</t>
+    <t>go fishing</t>
+  </si>
+  <si>
+    <t>plural-复数</t>
+  </si>
+  <si>
+    <t>grammatical–符合语法规则的</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>interestingly</t>
+  </si>
+  <si>
+    <t>emblem</t>
   </si>
   <si>
     <t>physics</t>
   </si>
   <si>
-    <t>wake - woke - woken</t>
-  </si>
-  <si>
-    <t>I’ve gained some wieght</t>
-  </si>
-  <si>
-    <t>assuming-傲慢的</t>
-  </si>
-  <si>
-    <t>conclusion</t>
-  </si>
-  <si>
-    <t>fragile</t>
+    <t>vocabulary-词汇量</t>
+  </si>
+  <si>
+    <t>coordinating–并列，同等的</t>
+  </si>
+  <si>
+    <t>duckling</t>
+  </si>
+  <si>
+    <t>beauty - n</t>
+  </si>
+  <si>
+    <t>football field</t>
   </si>
   <si>
     <t>physical education</t>
   </si>
   <si>
-    <t>take - took - taken</t>
-  </si>
-  <si>
-    <t>singular-单数</t>
-  </si>
-  <si>
-    <t>exclamatory-感叹的</t>
-  </si>
-  <si>
-    <t>spoonful</t>
+    <t>tiresome令人讨厌的</t>
+  </si>
+  <si>
+    <t>subordinating-- 连接主句和从句的；从属的</t>
+  </si>
+  <si>
+    <t>branch - branches</t>
+  </si>
+  <si>
+    <t>beautiful - adj</t>
   </si>
   <si>
     <t>politics</t>
   </si>
   <si>
-    <t>go fishing</t>
-  </si>
-  <si>
-    <t>plural-复数</t>
-  </si>
-  <si>
-    <t>grammatical–符合语法规则的</t>
-  </si>
-  <si>
-    <t>Eve</t>
-  </si>
-  <si>
-    <t>interestingly</t>
+    <t>variety --多样种类</t>
+  </si>
+  <si>
+    <t>auxiliary–辅助的，副的</t>
+  </si>
+  <si>
+    <t>magnifying glass</t>
+  </si>
+  <si>
+    <t>beautify</t>
+  </si>
+  <si>
+    <t>dry and wet season</t>
   </si>
   <si>
     <t>history</t>
   </si>
   <si>
-    <t>vocabulary-词汇量</t>
-  </si>
-  <si>
-    <t>coordinating–并列，同等的</t>
-  </si>
-  <si>
-    <t>duckling</t>
-  </si>
-  <si>
-    <t>beauty - n</t>
+    <t>thesaurus-词典百科全书</t>
+  </si>
+  <si>
+    <t>conditional–有条件的</t>
+  </si>
+  <si>
+    <t>magnify</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>rainy season</t>
   </si>
   <si>
     <t>economics</t>
   </si>
   <si>
-    <t>tiresome令人讨厌的</t>
-  </si>
-  <si>
-    <t>subordinating-- 连接主句和从句的；从属的</t>
-  </si>
-  <si>
-    <t>branch - branches</t>
-  </si>
-  <si>
-    <t>beautiful - adj</t>
+    <t>low-key</t>
+  </si>
+  <si>
+    <t>bacteria–细菌</t>
+  </si>
+  <si>
+    <t>squirrel</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>flip flops</t>
   </si>
   <si>
     <t>English literature</t>
   </si>
   <si>
-    <t>variety --多样种类</t>
-  </si>
-  <si>
-    <t>auxiliary–辅助的，副的</t>
-  </si>
-  <si>
-    <t>magnifying glass</t>
-  </si>
-  <si>
-    <t>beautify</t>
+    <t>低调</t>
+  </si>
+  <si>
+    <t>hikikomori–蛰居族-自闭的人</t>
+  </si>
+  <si>
+    <t>feather</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>tank top</t>
   </si>
   <si>
     <t>clubs</t>
   </si>
   <si>
-    <t>thesaurus-词典百科全书</t>
-  </si>
-  <si>
-    <t>conditional–有条件的</t>
-  </si>
-  <si>
-    <t>magnify</t>
-  </si>
-  <si>
-    <t>maximum</t>
+    <t>envious</t>
+  </si>
+  <si>
+    <t>co-author</t>
+  </si>
+  <si>
+    <t>caterpillar</t>
+  </si>
+  <si>
+    <t>harden</t>
+  </si>
+  <si>
+    <t>Hawaiian shirt</t>
   </si>
   <si>
     <t>extracurricular activity</t>
   </si>
   <si>
-    <t>bacteria–细菌</t>
-  </si>
-  <si>
-    <t>squirrel</t>
-  </si>
-  <si>
-    <t>kind</t>
+    <t>frozen dumplings</t>
+  </si>
+  <si>
+    <t>co-ed</t>
+  </si>
+  <si>
+    <t>stray cat</t>
+  </si>
+  <si>
+    <t>plain</t>
   </si>
   <si>
     <t>recruitment week</t>
   </si>
   <si>
-    <t>hikikomori–蛰居族-自闭的人</t>
-  </si>
-  <si>
-    <t>feather</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>Steamed dumplings</t>
+  </si>
+  <si>
+    <t>politics-政治</t>
+  </si>
+  <si>
+    <t>or co-educational</t>
+  </si>
+  <si>
+    <t>melt</t>
   </si>
   <si>
     <t>recruit</t>
   </si>
   <si>
-    <t>co-author</t>
-  </si>
-  <si>
-    <t>caterpillar</t>
-  </si>
-  <si>
-    <t>harden</t>
+    <t>filling</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>interact–互相作用</t>
+  </si>
+  <si>
+    <t>Lantern Festival;</t>
   </si>
   <si>
     <t>film studies</t>
   </si>
   <si>
-    <t>co-ed</t>
-  </si>
-  <si>
-    <t>stray cat</t>
+    <t>韭菜鸡蛋饺子</t>
+  </si>
+  <si>
+    <t>strawberry jam</t>
+  </si>
+  <si>
+    <t>shoot off firecrackers</t>
   </si>
   <si>
     <t>experience</t>
   </si>
   <si>
-    <t>politics-政治</t>
-  </si>
-  <si>
-    <t>or co-educational</t>
-  </si>
-  <si>
-    <t>melt</t>
+    <t>Chinese chives and egg dumplings</t>
+  </si>
+  <si>
+    <t>blueberry jam</t>
+  </si>
+  <si>
+    <t>light up</t>
   </si>
   <si>
     <t>tier</t>
   </si>
   <si>
-    <t>carrot</t>
-  </si>
-  <si>
-    <t>interact–互相作用</t>
-  </si>
-  <si>
-    <t>Lantern Festival;</t>
+    <t>humid</t>
+  </si>
+  <si>
+    <t>stove</t>
+  </si>
+  <si>
+    <t>neutral-中立的</t>
+  </si>
+  <si>
+    <t>superstition</t>
   </si>
   <si>
     <t>first tier universities</t>
   </si>
   <si>
-    <t>strawberry jam</t>
-  </si>
-  <si>
-    <t>shoot off firecrackers</t>
+    <t>sweat</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>sticky rice or glutinous rice</t>
   </si>
   <si>
     <t>Master’s degree</t>
   </si>
   <si>
-    <t>blueberry jam</t>
-  </si>
-  <si>
-    <t>light up</t>
+    <t>scorching</t>
+  </si>
+  <si>
+    <t>squash</t>
+  </si>
+  <si>
+    <t>multi-task</t>
+  </si>
+  <si>
+    <t>circle</t>
   </si>
   <si>
     <t>doctorate</t>
   </si>
   <si>
-    <t>stove</t>
-  </si>
-  <si>
-    <t>neutral-中立的</t>
-  </si>
-  <si>
-    <t>superstition</t>
+    <t>picnic</t>
+  </si>
+  <si>
+    <t>scissors</t>
+  </si>
+  <si>
+    <t>multi-tasking</t>
   </si>
   <si>
     <t>PhD</t>
   </si>
   <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>laptop</t>
-  </si>
-  <si>
-    <t>sticky rice or glutinous rice</t>
+    <t>sunbathing</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>scarf -scarves--围巾</t>
+  </si>
+  <si>
+    <t>dotted clothes</t>
   </si>
   <si>
     <t>relative</t>
   </si>
   <si>
-    <t>squash</t>
-  </si>
-  <si>
-    <t>multi-task</t>
-  </si>
-  <si>
-    <t>circle</t>
+    <t>europeans</t>
+  </si>
+  <si>
+    <t>leaf- leaves</t>
+  </si>
+  <si>
+    <t>snowboard</t>
+  </si>
+  <si>
+    <t>spring festival scrolls</t>
   </si>
   <si>
     <t>talkative</t>
   </si>
   <si>
-    <t>scissors</t>
-  </si>
-  <si>
-    <t>multi-tasking</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>scarf -scarves--围巾</t>
-  </si>
-  <si>
-    <t>dotted clothes</t>
-  </si>
-  <si>
-    <t>leaf- leaves</t>
-  </si>
-  <si>
-    <t>snowboard</t>
-  </si>
-  <si>
-    <t>spring festival scrolls</t>
+    <t>shed</t>
   </si>
   <si>
     <t>puddle</t>
@@ -757,6 +835,9 @@
     <t>calligraphy</t>
   </si>
   <si>
+    <t>sunscreen</t>
+  </si>
+  <si>
     <t>drugstore</t>
   </si>
   <si>
@@ -766,6 +847,9 @@
     <t>parade</t>
   </si>
   <si>
+    <t>skincare routine</t>
+  </si>
+  <si>
     <t>pharmacy</t>
   </si>
   <si>
@@ -775,6 +859,9 @@
     <t>blow trumpets blow horns</t>
   </si>
   <si>
+    <t>Choice of a delicate life</t>
+  </si>
+  <si>
     <t>jacket</t>
   </si>
   <si>
@@ -784,6 +871,9 @@
     <t>evil spirit</t>
   </si>
   <si>
+    <t>cosmetics/makeup</t>
+  </si>
+  <si>
     <t>skirt</t>
   </si>
   <si>
@@ -791,6 +881,9 @@
   </si>
   <si>
     <t>peak days</t>
+  </si>
+  <si>
+    <t>encourage</t>
   </si>
   <si>
     <t>boots</t>
@@ -874,8 +967,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -900,8 +993,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,9 +1016,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -924,14 +1054,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,63 +1100,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1024,21 +1123,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,6 +1146,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1065,7 +1230,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,37 +1272,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,115 +1326,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,17 +1364,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1297,15 +1379,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1317,6 +1390,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1344,6 +1426,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1352,10 +1445,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1364,133 +1457,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1854,8 +1947,8 @@
   <sheetPr/>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2318,130 +2411,127 @@
         <v>132</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1"/>
+      <c r="G21" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1"/>
+      <c r="G22" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
         <v>168</v>
       </c>
@@ -2462,470 +2552,537 @@
       <c r="D27" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="F31" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>198</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>204</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>208</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>210</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>221</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>226</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>231</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>235</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>239</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>244</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>249</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>254</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5">
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5">
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5">
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5">
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5">
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5">
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2933,10 +3090,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2944,10 +3101,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2956,7 +3113,7 @@
     <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2976,47 +3133,41 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:4">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5">
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5">
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5">
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:5">
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:5">
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/pages/english/md/word-review.xlsx
+++ b/src/pages/english/md/word-review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22605" windowHeight="11940"/>
+    <workbookView windowWidth="23280" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="316">
   <si>
     <t>Bible</t>
   </si>
@@ -649,7 +649,24 @@
     <t>clubs</t>
   </si>
   <si>
-    <t>envious</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>envious</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羡慕的；嫉妒的</t>
+    </r>
   </si>
   <si>
     <t>co-author</t>
@@ -667,7 +684,24 @@
     <t>extracurricular activity</t>
   </si>
   <si>
-    <t>frozen dumplings</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">frozen dumplings </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>速冻饺子</t>
+    </r>
   </si>
   <si>
     <t>co-ed</t>
@@ -682,7 +716,24 @@
     <t>recruitment week</t>
   </si>
   <si>
-    <t>Steamed dumplings</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Steamed dumplings </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蒸饺</t>
+    </r>
   </si>
   <si>
     <t>politics-政治</t>
@@ -697,7 +748,24 @@
     <t>recruit</t>
   </si>
   <si>
-    <t>filling</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">filling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填充；填料</t>
+    </r>
   </si>
   <si>
     <t>carrot</t>
@@ -736,7 +804,24 @@
     <t>tier</t>
   </si>
   <si>
-    <t>humid</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">humid  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>潮湿的</t>
+    </r>
   </si>
   <si>
     <t>stove</t>
@@ -751,7 +836,24 @@
     <t>first tier universities</t>
   </si>
   <si>
-    <t>sweat</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">sweat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汗水</t>
+    </r>
   </si>
   <si>
     <t>glass</t>
@@ -766,7 +868,24 @@
     <t>Master’s degree</t>
   </si>
   <si>
-    <t>scorching</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">scorching </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灼热的；</t>
+    </r>
   </si>
   <si>
     <t>squash</t>
@@ -781,7 +900,24 @@
     <t>doctorate</t>
   </si>
   <si>
-    <t>picnic</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">picnic  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>野餐</t>
+    </r>
   </si>
   <si>
     <t>scissors</t>
@@ -823,7 +959,24 @@
     <t>talkative</t>
   </si>
   <si>
-    <t>shed</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棚，棚屋</t>
+    </r>
   </si>
   <si>
     <t>puddle</t>
@@ -835,7 +988,24 @@
     <t>calligraphy</t>
   </si>
   <si>
-    <t>sunscreen</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">sunscreen  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防晒霜</t>
+    </r>
   </si>
   <si>
     <t>drugstore</t>
@@ -847,7 +1017,24 @@
     <t>parade</t>
   </si>
   <si>
-    <t>skincare routine</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">skincare routine  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常规，惯例</t>
+    </r>
   </si>
   <si>
     <t>pharmacy</t>
@@ -859,7 +1046,24 @@
     <t>blow trumpets blow horns</t>
   </si>
   <si>
-    <t>Choice of a delicate life</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Choice of a delicate life  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>精致生活</t>
+    </r>
   </si>
   <si>
     <t>jacket</t>
@@ -871,7 +1075,24 @@
     <t>evil spirit</t>
   </si>
   <si>
-    <t>cosmetics/makeup</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">cosmetics/makeup  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>化妆品</t>
+    </r>
   </si>
   <si>
     <t>skirt</t>
@@ -893,6 +1114,44 @@
   </si>
   <si>
     <t>Spring Lantern Festival</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">plain  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简单的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平的</t>
+    </r>
   </si>
   <si>
     <t>wound</t>
@@ -966,12 +1225,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,17 +1252,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,8 +1267,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1038,7 +1290,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1053,10 +1305,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1068,23 +1336,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,14 +1376,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1123,18 +1383,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1146,25 +1411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,7 +1435,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,7 +1465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,7 +1483,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,13 +1531,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,91 +1591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,6 +1602,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1379,17 +1659,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1417,26 +1702,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1445,10 +1710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1457,133 +1722,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1947,13 +2212,13 @@
   <sheetPr/>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
     <col min="2" max="2" width="37.625" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
@@ -2988,32 +3253,32 @@
       </c>
       <c r="D51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>223</v>
@@ -3023,26 +3288,26 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>271</v>
@@ -3051,38 +3316,38 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3090,10 +3355,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3101,10 +3366,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3113,7 +3378,7 @@
     <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>

--- a/src/pages/english/md/word-review.xlsx
+++ b/src/pages/english/md/word-review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="11940"/>
+    <workbookView windowWidth="24720" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="351">
   <si>
     <t>Bible</t>
   </si>
@@ -538,7 +538,18 @@
     <t>interestingly</t>
   </si>
   <si>
-    <t>emblem</t>
+    <r>
+      <t xml:space="preserve">emblem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>徽章</t>
+    </r>
   </si>
   <si>
     <t>physics</t>
@@ -550,7 +561,18 @@
     <t>coordinating–并列，同等的</t>
   </si>
   <si>
-    <t>duckling</t>
+    <r>
+      <t xml:space="preserve">duckling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小鸭子</t>
+    </r>
   </si>
   <si>
     <t>beauty - n</t>
@@ -568,12 +590,37 @@
     <t>subordinating-- 连接主句和从句的；从属的</t>
   </si>
   <si>
-    <t>branch - branches</t>
+    <r>
+      <t xml:space="preserve">branch - branches </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分支</t>
+    </r>
   </si>
   <si>
     <t>beautiful - adj</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">helmet  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钢盔头盔</t>
+    </r>
+  </si>
+  <si>
     <t>politics</t>
   </si>
   <si>
@@ -583,7 +630,18 @@
     <t>auxiliary–辅助的，副的</t>
   </si>
   <si>
-    <t>magnifying glass</t>
+    <r>
+      <t xml:space="preserve">magnifying glass </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放大镜</t>
+    </r>
   </si>
   <si>
     <t>beautify</t>
@@ -601,7 +659,18 @@
     <t>conditional–有条件的</t>
   </si>
   <si>
-    <t>magnify</t>
+    <r>
+      <t xml:space="preserve">magnify </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放大夸大</t>
+    </r>
   </si>
   <si>
     <t>maximum</t>
@@ -619,7 +688,18 @@
     <t>bacteria–细菌</t>
   </si>
   <si>
-    <t>squirrel</t>
+    <r>
+      <t xml:space="preserve">squirrel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>松鼠</t>
+    </r>
   </si>
   <si>
     <t>kind</t>
@@ -637,7 +717,18 @@
     <t>hikikomori–蛰居族-自闭的人</t>
   </si>
   <si>
-    <t>feather</t>
+    <r>
+      <t xml:space="preserve">feather </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羽毛</t>
+    </r>
   </si>
   <si>
     <t>hard</t>
@@ -672,13 +763,35 @@
     <t>co-author</t>
   </si>
   <si>
-    <t>caterpillar</t>
+    <r>
+      <t xml:space="preserve">caterpillar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毛虫；履带车</t>
+    </r>
   </si>
   <si>
     <t>harden</t>
   </si>
   <si>
-    <t>Hawaiian shirt</t>
+    <r>
+      <t xml:space="preserve">Hawaiian shirt  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>花衬衫</t>
+    </r>
   </si>
   <si>
     <t>extracurricular activity</t>
@@ -707,7 +820,18 @@
     <t>co-ed</t>
   </si>
   <si>
-    <t>stray cat</t>
+    <r>
+      <t xml:space="preserve">stray cat  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流浪猫</t>
+    </r>
   </si>
   <si>
     <t>plain</t>
@@ -742,10 +866,32 @@
     <t>or co-educational</t>
   </si>
   <si>
-    <t>melt</t>
-  </si>
-  <si>
-    <t>recruit</t>
+    <r>
+      <t xml:space="preserve">melt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>融化溶解，雪化了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">recruit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>招聘</t>
+    </r>
   </si>
   <si>
     <r>
@@ -774,7 +920,21 @@
     <t>interact–互相作用</t>
   </si>
   <si>
-    <t>Lantern Festival;</t>
+    <r>
+      <t xml:space="preserve">Lantern Festival </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元宵节</t>
+    </r>
+  </si>
+  <si>
+    <t>vaccine 疫苗</t>
   </si>
   <si>
     <t>film studies</t>
@@ -783,10 +943,38 @@
     <t>韭菜鸡蛋饺子</t>
   </si>
   <si>
-    <t>strawberry jam</t>
-  </si>
-  <si>
-    <t>shoot off firecrackers</t>
+    <r>
+      <t xml:space="preserve">strawberry jam </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>草莓酱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shoot off firecrackers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放鞭炮</t>
+    </r>
+  </si>
+  <si>
+    <t>wait for a moment</t>
+  </si>
+  <si>
+    <t>get vaccinated</t>
   </si>
   <si>
     <t>experience</t>
@@ -795,12 +983,29 @@
     <t>Chinese chives and egg dumplings</t>
   </si>
   <si>
-    <t>blueberry jam</t>
+    <r>
+      <t xml:space="preserve">blueberry jam </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓝莓酱</t>
+    </r>
   </si>
   <si>
     <t>light up</t>
   </si>
   <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>prescription 药方</t>
+  </si>
+  <si>
     <t>tier</t>
   </si>
   <si>
@@ -830,7 +1035,24 @@
     <t>neutral-中立的</t>
   </si>
   <si>
-    <t>superstition</t>
+    <r>
+      <t xml:space="preserve">superstition </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>迷信</t>
+    </r>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>bachelor's degree 学士学位</t>
   </si>
   <si>
     <t>first tier universities</t>
@@ -862,7 +1084,24 @@
     <t>laptop</t>
   </si>
   <si>
-    <t>sticky rice or glutinous rice</t>
+    <r>
+      <t xml:space="preserve">sticky rice or glutinous rice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米团</t>
+    </r>
+  </si>
+  <si>
+    <t>housewarming party</t>
+  </si>
+  <si>
+    <t>mispronounce 发错音</t>
   </si>
   <si>
     <t>Master’s degree</t>
@@ -888,7 +1127,18 @@
     </r>
   </si>
   <si>
-    <t>squash</t>
+    <r>
+      <t xml:space="preserve">squash </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南瓜</t>
+    </r>
   </si>
   <si>
     <t>multi-task</t>
@@ -897,6 +1147,12 @@
     <t>circle</t>
   </si>
   <si>
+    <t>disgraced</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
     <t>doctorate</t>
   </si>
   <si>
@@ -920,12 +1176,54 @@
     </r>
   </si>
   <si>
-    <t>scissors</t>
+    <r>
+      <t xml:space="preserve">scissors  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>剪刀</t>
+    </r>
   </si>
   <si>
     <t>multi-tasking</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">polka dots </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中圆点花</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vocational schools </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职业学校</t>
+    </r>
+  </si>
+  <si>
+    <t>contractions 缩略形式</t>
+  </si>
+  <si>
     <t>PhD</t>
   </si>
   <si>
@@ -941,6 +1239,23 @@
     <t>dotted clothes</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">junior college </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大专</t>
+    </r>
+  </si>
+  <si>
+    <t>affirmative = positive 积极地</t>
+  </si>
+  <si>
     <t>relative</t>
   </si>
   <si>
@@ -953,7 +1268,24 @@
     <t>snowboard</t>
   </si>
   <si>
-    <t>spring festival scrolls</t>
+    <r>
+      <t xml:space="preserve">spring festival scrolls </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>春联</t>
+    </r>
+  </si>
+  <si>
+    <t>look down on sb</t>
+  </si>
+  <si>
+    <t>neutral - neutralize</t>
   </si>
   <si>
     <t>talkative</t>
@@ -979,13 +1311,70 @@
     </r>
   </si>
   <si>
-    <t>puddle</t>
+    <r>
+      <t xml:space="preserve">puddle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水坑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泥泞小水坑</t>
+    </r>
   </si>
   <si>
     <t>snowboarding</t>
   </si>
   <si>
-    <t>calligraphy</t>
+    <r>
+      <t xml:space="preserve">calligraphy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>书法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">technical secondary school </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中专</t>
+    </r>
+  </si>
+  <si>
+    <t>organized 有秩序的</t>
   </si>
   <si>
     <r>
@@ -1014,7 +1403,24 @@
     <t>June</t>
   </si>
   <si>
-    <t>parade</t>
+    <r>
+      <t xml:space="preserve">parade  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游行</t>
+    </r>
+  </si>
+  <si>
+    <t>fat  cat</t>
+  </si>
+  <si>
+    <t>public transportation</t>
   </si>
   <si>
     <r>
@@ -1037,13 +1443,72 @@
     </r>
   </si>
   <si>
-    <t>pharmacy</t>
+    <r>
+      <t xml:space="preserve">pharmacy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药房</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药店</t>
+    </r>
   </si>
   <si>
     <t>october</t>
   </si>
   <si>
-    <t>blow trumpets blow horns</t>
+    <r>
+      <t xml:space="preserve">blow trumpets blow horns </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吹喇叭</t>
+    </r>
+  </si>
+  <si>
+    <t>luck dog</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">peak hours  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高峰时间</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1066,7 +1531,18 @@
     </r>
   </si>
   <si>
-    <t>jacket</t>
+    <r>
+      <t xml:space="preserve">jacket </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夹克</t>
+    </r>
   </si>
   <si>
     <t>ski board</t>
@@ -1075,6 +1551,12 @@
     <t>evil spirit</t>
   </si>
   <si>
+    <t>lucky dog</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1095,13 +1577,41 @@
     </r>
   </si>
   <si>
-    <t>skirt</t>
+    <r>
+      <t xml:space="preserve">skirt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裙子</t>
+    </r>
   </si>
   <si>
     <t>frozen lake</t>
   </si>
   <si>
-    <t>peak days</t>
+    <r>
+      <t xml:space="preserve">peak days </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>峰荷日</t>
+    </r>
+  </si>
+  <si>
+    <t>mandarin</t>
+  </si>
+  <si>
+    <t>hi-tech</t>
   </si>
   <si>
     <t>encourage</t>
@@ -1117,12 +1627,47 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">gossip </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小道传闻</t>
+    </r>
+    <r>
       <rPr>
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>八卦消息</t>
+    </r>
+  </si>
+  <si>
+    <t>itchy  发痒的，渴望的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">plain  </t>
     </r>
     <r>
@@ -1160,61 +1705,202 @@
     <t>harvest</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">itchy feet   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>旅行的渴望</t>
+    </r>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>triple pay</t>
+    <r>
+      <t xml:space="preserve">triple pay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三倍薪资</t>
+    </r>
+  </si>
+  <si>
+    <t>frequently</t>
   </si>
   <si>
     <t>brush</t>
   </si>
   <si>
+    <t>grammatically correct</t>
+  </si>
+  <si>
     <t>paint brush</t>
   </si>
   <si>
     <t>mid-autumn festival</t>
   </si>
   <si>
-    <t>pencil case</t>
+    <r>
+      <t xml:space="preserve">pencil case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文具盒</t>
+    </r>
   </si>
   <si>
     <t>skiing</t>
   </si>
   <si>
-    <t>Celsius</t>
+    <r>
+      <t xml:space="preserve">Fahrenheit degree </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>华氏温度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Celsius </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摄氏度</t>
+    </r>
+  </si>
+  <si>
+    <t>ice skating</t>
   </si>
   <si>
     <t>coat</t>
   </si>
   <si>
-    <t>ice skating</t>
-  </si>
-  <si>
     <t>snowball fight</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">sledding  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乘雪橇</t>
+    </r>
+  </si>
+  <si>
     <t>below zero</t>
   </si>
   <si>
-    <t>sledding</t>
-  </si>
-  <si>
-    <t>hibernate</t>
-  </si>
-  <si>
-    <t>mahjong</t>
-  </si>
-  <si>
-    <t>wild boar</t>
+    <r>
+      <t xml:space="preserve">mahjong </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>麻将</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hibernate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冬眠</t>
+    </r>
   </si>
   <si>
     <t>Christmas eve</t>
   </si>
   <si>
-    <t>astigmatism</t>
+    <r>
+      <t xml:space="preserve">wild boar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>野猪</t>
+    </r>
   </si>
   <si>
     <t>Europe</t>
+  </si>
+  <si>
+    <r>
+      <t>astigmatism [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>眼科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>散光</t>
+    </r>
   </si>
   <si>
     <t>Christmas markets</t>
@@ -1225,12 +1911,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,16 +1938,52 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1275,15 +1997,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1297,13 +2028,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1312,57 +2036,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1383,19 +2068,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -1411,7 +2112,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,31 +2178,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,31 +2232,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,103 +2286,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,21 +2303,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1639,7 +2325,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1661,29 +2362,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1702,6 +2383,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1710,149 +2411,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1860,6 +2561,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2210,19 +2914,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="29.625" customWidth="1"/>
     <col min="2" max="2" width="37.625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="31.75" customWidth="1"/>
     <col min="6" max="6" width="25.625" customWidth="1"/>
     <col min="7" max="7" width="37.625" customWidth="1"/>
   </cols>
@@ -2858,581 +3562,655 @@
         <v>185</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D37" s="1"/>
+      <c r="E37" t="s">
+        <v>232</v>
+      </c>
       <c r="F37" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E38" t="s">
+        <v>238</v>
+      </c>
       <c r="F38" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>242</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E39" t="s">
+        <v>244</v>
+      </c>
       <c r="F39" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E40" t="s">
+        <v>251</v>
+      </c>
       <c r="F40" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E41" t="s">
+        <v>258</v>
+      </c>
       <c r="F41" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42" t="s">
+        <v>265</v>
+      </c>
       <c r="F42" s="1" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E43" t="s">
+        <v>272</v>
+      </c>
       <c r="F43" s="1" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>277</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" t="s">
+        <v>279</v>
+      </c>
       <c r="F44" s="1" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>284</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" t="s">
+        <v>286</v>
+      </c>
       <c r="F45" s="1" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D46" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E46" t="s">
+        <v>293</v>
+      </c>
       <c r="G46" s="1" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>297</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E47" t="s">
+        <v>299</v>
+      </c>
       <c r="G47" s="1" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>305</v>
+      </c>
       <c r="G48" s="1" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>309</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E49" t="s">
+        <v>311</v>
+      </c>
       <c r="G49" s="1" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E50" t="s">
+        <v>317</v>
+      </c>
       <c r="G50" s="1" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>321</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E51" t="s">
+        <v>323</v>
+      </c>
       <c r="G51" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5">
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5">
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="B64" s="1" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4">
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4">
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4">
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4">
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4">
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/pages/english/md/word-review.xlsx
+++ b/src/pages/english/md/word-review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24720" windowHeight="11730"/>
+    <workbookView windowWidth="24915" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,6 +539,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">emblem </t>
     </r>
     <r>
@@ -562,6 +568,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">duckling </t>
     </r>
     <r>
@@ -591,6 +603,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">branch - branches </t>
     </r>
     <r>
@@ -608,6 +626,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">helmet  </t>
     </r>
     <r>
@@ -631,6 +655,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">magnifying glass </t>
     </r>
     <r>
@@ -660,6 +690,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">magnify </t>
     </r>
     <r>
@@ -689,6 +725,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">squirrel </t>
     </r>
     <r>
@@ -718,6 +760,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">feather </t>
     </r>
     <r>
@@ -764,6 +812,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">caterpillar </t>
     </r>
     <r>
@@ -781,6 +835,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Hawaiian shirt  </t>
     </r>
     <r>
@@ -821,6 +881,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">stray cat  </t>
     </r>
     <r>
@@ -867,6 +933,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">melt </t>
     </r>
     <r>
@@ -881,6 +953,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">recruit </t>
     </r>
     <r>
@@ -921,6 +999,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Lantern Festival </t>
     </r>
     <r>
@@ -944,6 +1028,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">strawberry jam </t>
     </r>
     <r>
@@ -958,6 +1048,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shoot off firecrackers </t>
     </r>
     <r>
@@ -984,6 +1080,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">blueberry jam </t>
     </r>
     <r>
@@ -1036,6 +1138,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">superstition </t>
     </r>
     <r>
@@ -1085,6 +1193,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">sticky rice or glutinous rice </t>
     </r>
     <r>
@@ -1128,6 +1242,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">squash </t>
     </r>
     <r>
@@ -1177,6 +1297,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">scissors  </t>
     </r>
     <r>
@@ -1194,6 +1320,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">polka dots </t>
     </r>
     <r>
@@ -1208,6 +1340,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vocational schools </t>
     </r>
     <r>
@@ -1240,6 +1378,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">junior college </t>
     </r>
     <r>
@@ -1269,6 +1413,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">spring festival scrolls </t>
     </r>
     <r>
@@ -1312,6 +1462,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">puddle </t>
     </r>
     <r>
@@ -1347,6 +1503,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">calligraphy </t>
     </r>
     <r>
@@ -1361,6 +1523,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">technical secondary school </t>
     </r>
     <r>
@@ -1404,6 +1572,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">parade  </t>
     </r>
     <r>
@@ -1444,6 +1618,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">pharmacy </t>
     </r>
     <r>
@@ -1479,6 +1659,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">blow trumpets blow horns </t>
     </r>
     <r>
@@ -1496,6 +1682,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">peak hours  </t>
     </r>
     <r>
@@ -1532,6 +1725,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">jacket </t>
     </r>
     <r>
@@ -1578,6 +1777,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">skirt </t>
     </r>
     <r>
@@ -1595,6 +1800,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">peak days </t>
     </r>
     <r>
@@ -1627,6 +1838,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">gossip </t>
     </r>
     <r>
@@ -1706,6 +1923,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">itchy feet   </t>
     </r>
     <r>
@@ -1724,6 +1947,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">triple pay </t>
     </r>
     <r>
@@ -1753,6 +1982,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">pencil case </t>
     </r>
     <r>
@@ -1770,6 +2005,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Fahrenheit degree </t>
     </r>
     <r>
@@ -1784,6 +2025,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Celsius </t>
     </r>
     <r>
@@ -1807,6 +2054,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">sledding  </t>
     </r>
     <r>
@@ -1824,6 +2077,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">mahjong </t>
     </r>
     <r>
@@ -1838,6 +2097,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hibernate </t>
     </r>
     <r>
@@ -1855,6 +2120,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wild boar </t>
     </r>
     <r>
@@ -1872,6 +2143,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>astigmatism [</t>
     </r>
     <r>
@@ -1911,10 +2188,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1938,10 +2215,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1952,11 +2230,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1967,8 +2244,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1982,32 +2274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2028,6 +2297,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2044,8 +2321,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2059,16 +2337,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2112,7 +2389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2124,7 +2401,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2136,7 +2527,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2148,151 +2569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2303,6 +2580,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2317,30 +2618,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2369,16 +2646,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2414,7 +2691,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2423,19 +2700,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2444,13 +2721,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2459,97 +2739,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2916,8 +3193,8 @@
   <sheetPr/>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/src/pages/english/md/word-review.xlsx
+++ b/src/pages/english/md/word-review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24915" windowHeight="12315"/>
+    <workbookView windowWidth="24915" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="388">
   <si>
     <t>Bible</t>
   </si>
@@ -1595,6 +1595,9 @@
   </si>
   <si>
     <t>public transportation</t>
+  </si>
+  <si>
+    <t>casual</t>
   </si>
   <si>
     <r>
@@ -1704,6 +1707,9 @@
     </r>
   </si>
   <si>
+    <t>hang out (also hang around)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1756,6 +1762,9 @@
     <t>distance</t>
   </si>
   <si>
+    <t>headed</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1825,6 +1834,9 @@
     <t>hi-tech</t>
   </si>
   <si>
+    <t>hectic</t>
+  </si>
+  <si>
     <t>encourage</t>
   </si>
   <si>
@@ -1878,6 +1890,9 @@
     <t>itchy  发痒的，渴望的</t>
   </si>
   <si>
+    <t>time off</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1943,6 +1958,9 @@
     </r>
   </si>
   <si>
+    <t>tricky</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
@@ -1969,12 +1987,32 @@
     <t>frequently</t>
   </si>
   <si>
+    <t>suburbs</t>
+  </si>
+  <si>
     <t>brush</t>
   </si>
   <si>
+    <r>
+      <t>literal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文字的</t>
+    </r>
+  </si>
+  <si>
     <t>grammatically correct</t>
   </si>
   <si>
+    <t>chillin</t>
+  </si>
+  <si>
     <t>paint brush</t>
   </si>
   <si>
@@ -1982,6 +2020,23 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">instances </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实例</t>
+    </r>
+  </si>
+  <si>
+    <t>dude</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="10.5"/>
         <color rgb="FF000000"/>
@@ -2004,6 +2059,12 @@
     <t>skiing</t>
   </si>
   <si>
+    <t>negotiate谈判</t>
+  </si>
+  <si>
+    <t>stylin</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -2024,6 +2085,12 @@
     </r>
   </si>
   <si>
+    <t>taxi meter 出租计程器</t>
+  </si>
+  <si>
+    <t>commuter</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -2047,12 +2114,24 @@
     <t>ice skating</t>
   </si>
   <si>
+    <t>lose track of the time</t>
+  </si>
+  <si>
+    <t>complicated</t>
+  </si>
+  <si>
     <t>coat</t>
   </si>
   <si>
     <t>snowball fight</t>
   </si>
   <si>
+    <t>strawberry 草莓</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -2073,6 +2152,23 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">mission </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使命</t>
+    </r>
+  </si>
+  <si>
+    <t>efficient</t>
+  </si>
+  <si>
     <t>below zero</t>
   </si>
   <si>
@@ -2096,6 +2192,9 @@
     </r>
   </si>
   <si>
+    <t>mass transit</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -2119,6 +2218,12 @@
     <t>Christmas eve</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> schedule</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -2142,6 +2247,12 @@
     <t>Europe</t>
   </si>
   <si>
+    <t>bumpy</t>
+  </si>
+  <si>
+    <t>entertaining</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -2181,6 +2292,39 @@
   </si>
   <si>
     <t>Christmas markets</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>farecard</t>
+  </si>
+  <si>
+    <t>stay tuned</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> attention</t>
+  </si>
+  <si>
+    <t>token booth</t>
+  </si>
+  <si>
+    <t>turnstile</t>
+  </si>
+  <si>
+    <t>wacky</t>
+  </si>
+  <si>
+    <t>arrange</t>
+  </si>
+  <si>
+    <t>cabbie</t>
+  </si>
+  <si>
+    <t>fare</t>
+  </si>
+  <si>
+    <t>hail a cab</t>
   </si>
 </sst>
 </file>
@@ -2188,10 +2332,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2215,16 +2359,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2246,7 +2397,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2260,7 +2411,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2282,10 +2433,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2321,6 +2473,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2331,14 +2490,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2346,14 +2498,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2395,7 +2539,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2413,13 +2599,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2431,49 +2671,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2491,85 +2713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2585,24 +2729,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2622,17 +2768,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2641,7 +2781,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2661,22 +2810,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2688,10 +2832,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2700,133 +2844,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3193,8 +3337,8 @@
   <sheetPr/>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3204,7 +3348,7 @@
     <col min="3" max="3" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="27.375" customWidth="1"/>
     <col min="5" max="5" width="31.75" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="29.75" customWidth="1"/>
     <col min="7" max="7" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4226,268 +4370,373 @@
       <c r="E47" t="s">
         <v>299</v>
       </c>
+      <c r="F47" t="s">
+        <v>300</v>
+      </c>
       <c r="G47" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
+      </c>
+      <c r="F48" t="s">
+        <v>307</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E49" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="F49" t="s">
+        <v>314</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E50" t="s">
-        <v>317</v>
+        <v>320</v>
+      </c>
+      <c r="F50" t="s">
+        <v>321</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E51" t="s">
-        <v>323</v>
+        <v>327</v>
+      </c>
+      <c r="F51" t="s">
+        <v>328</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>332</v>
+      </c>
+      <c r="F52" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>336</v>
+      </c>
+      <c r="F53" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>340</v>
+      </c>
+      <c r="F54" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C55" s="1"/>
+        <v>343</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="F55" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>336</v>
+        <v>347</v>
+      </c>
+      <c r="C56" t="s">
+        <v>348</v>
       </c>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="F56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>290</v>
       </c>
+      <c r="C57" t="s">
+        <v>351</v>
+      </c>
       <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="F57" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>339</v>
+        <v>354</v>
+      </c>
+      <c r="C58" t="s">
+        <v>355</v>
       </c>
       <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="F58" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>341</v>
+        <v>358</v>
+      </c>
+      <c r="C59" t="s">
+        <v>359</v>
       </c>
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="F59" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>342</v>
+        <v>361</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="F60" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>365</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="F61" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C62" s="1"/>
+        <v>368</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>372</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C64" s="1"/>
+        <v>376</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="F66" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="F67" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="F68" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="F69" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="F70" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="F71" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="F72" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1"/>
+      <c r="F73" t="s">
+        <v>387</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/pages/english/md/word-review.xlsx
+++ b/src/pages/english/md/word-review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24915" windowHeight="11805"/>
+    <workbookView windowWidth="24540" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="397">
   <si>
     <t>Bible</t>
   </si>
@@ -1994,6 +1994,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>literal</t>
     </r>
     <r>
@@ -2007,6 +2013,9 @@
     </r>
   </si>
   <si>
+    <t>identity card</t>
+  </si>
+  <si>
     <t>grammatically correct</t>
   </si>
   <si>
@@ -2020,6 +2029,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">instances </t>
     </r>
     <r>
@@ -2033,6 +2048,9 @@
     </r>
   </si>
   <si>
+    <t>national ID</t>
+  </si>
+  <si>
     <t>dude</t>
   </si>
   <si>
@@ -2062,6 +2080,9 @@
     <t>negotiate谈判</t>
   </si>
   <si>
+    <t>Do as the Romans do</t>
+  </si>
+  <si>
     <t>stylin</t>
   </si>
   <si>
@@ -2088,6 +2109,9 @@
     <t>taxi meter 出租计程器</t>
   </si>
   <si>
+    <t>cram school</t>
+  </si>
+  <si>
     <t>commuter</t>
   </si>
   <si>
@@ -2117,6 +2141,9 @@
     <t>lose track of the time</t>
   </si>
   <si>
+    <t>vaccine</t>
+  </si>
+  <si>
     <t>complicated</t>
   </si>
   <si>
@@ -2129,6 +2156,9 @@
     <t>strawberry 草莓</t>
   </si>
   <si>
+    <t>Sinovac</t>
+  </si>
+  <si>
     <t>complete</t>
   </si>
   <si>
@@ -2153,6 +2183,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">mission </t>
     </r>
     <r>
@@ -2166,6 +2202,9 @@
     </r>
   </si>
   <si>
+    <t>scam</t>
+  </si>
+  <si>
     <t>efficient</t>
   </si>
   <si>
@@ -2192,6 +2231,9 @@
     </r>
   </si>
   <si>
+    <t>trunk</t>
+  </si>
+  <si>
     <t>mass transit</t>
   </si>
   <si>
@@ -2219,6 +2261,9 @@
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <t>boot</t>
   </si>
   <si>
     <t xml:space="preserve"> schedule</t>
@@ -2332,9 +2377,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
@@ -2367,10 +2412,25 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2382,36 +2442,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2433,19 +2464,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2473,8 +2495,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2482,7 +2505,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2498,6 +2529,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2533,7 +2578,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2545,7 +2620,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2557,7 +2662,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2569,31 +2692,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2605,37 +2734,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2647,73 +2752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2727,13 +2772,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2749,21 +2798,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2786,15 +2820,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2806,6 +2831,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2824,6 +2860,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2832,10 +2877,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2847,130 +2892,130 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3337,8 +3382,8 @@
   <sheetPr/>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4510,87 +4555,99 @@
       <c r="C54" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="E54" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D55" s="1"/>
+        <v>345</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="F55" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C56" t="s">
-        <v>348</v>
-      </c>
-      <c r="D56" s="1"/>
+        <v>350</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="F56" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C57" t="s">
-        <v>351</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>354</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C58" t="s">
-        <v>355</v>
-      </c>
-      <c r="D58" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="F58" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C59" t="s">
-        <v>359</v>
-      </c>
-      <c r="D59" s="1"/>
+        <v>364</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="F59" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4598,75 +4655,80 @@
         <v>331</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>368</v>
+      </c>
+      <c r="D60" t="s">
+        <v>369</v>
+      </c>
       <c r="F60" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D61" s="1"/>
+      <c r="D61" t="s">
+        <v>373</v>
+      </c>
       <c r="F61" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D62" s="1"/>
+        <v>377</v>
+      </c>
+      <c r="D62" t="s">
+        <v>378</v>
+      </c>
       <c r="F62" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D63" s="1"/>
+        <v>382</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4675,7 +4737,7 @@
       <c r="C65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4684,7 +4746,7 @@
       <c r="C66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4692,7 +4754,7 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="F67" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4700,7 +4762,7 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="F68" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4708,34 +4770,34 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="F69" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="F70" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="F71" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="F72" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="F73" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/english/md/word-review.xlsx
+++ b/src/pages/english/md/word-review.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24540" windowHeight="12210"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="475">
   <si>
     <t>Bible</t>
   </si>
@@ -2022,6 +2023,9 @@
     <t>chillin</t>
   </si>
   <si>
+    <t>pantry</t>
+  </si>
+  <si>
     <t>paint brush</t>
   </si>
   <si>
@@ -2054,6 +2058,9 @@
     <t>dude</t>
   </si>
   <si>
+    <t>gossip</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -2083,9 +2090,15 @@
     <t>Do as the Romans do</t>
   </si>
   <si>
+    <t>knowledgeable</t>
+  </si>
+  <si>
     <t>stylin</t>
   </si>
   <si>
+    <t>mexico</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -2112,9 +2125,15 @@
     <t>cram school</t>
   </si>
   <si>
+    <t>populous</t>
+  </si>
+  <si>
     <t>commuter</t>
   </si>
   <si>
+    <t>spices</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -2144,9 +2163,15 @@
     <t>vaccine</t>
   </si>
   <si>
+    <t>Silicon Valley</t>
+  </si>
+  <si>
     <t>complicated</t>
   </si>
   <si>
+    <t>seasonings</t>
+  </si>
+  <si>
     <t>coat</t>
   </si>
   <si>
@@ -2159,9 +2184,15 @@
     <t>Sinovac</t>
   </si>
   <si>
+    <t>populous - adj</t>
+  </si>
+  <si>
     <t>complete</t>
   </si>
   <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -2205,9 +2236,15 @@
     <t>scam</t>
   </si>
   <si>
+    <t>population - n</t>
+  </si>
+  <si>
     <t>efficient</t>
   </si>
   <si>
+    <t>maintain</t>
+  </si>
+  <si>
     <t>below zero</t>
   </si>
   <si>
@@ -2234,9 +2271,15 @@
     <t>trunk</t>
   </si>
   <si>
+    <t>obey - v</t>
+  </si>
+  <si>
     <t>mass transit</t>
   </si>
   <si>
+    <t>intermittent = 断断续续</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -2266,9 +2309,15 @@
     <t>boot</t>
   </si>
   <si>
+    <t>obedient - adj</t>
+  </si>
+  <si>
     <t xml:space="preserve"> schedule</t>
   </si>
   <si>
+    <t>heart is beating fast</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -2295,9 +2344,15 @@
     <t>bumpy</t>
   </si>
   <si>
+    <t>不夜城 - city that never sleeps</t>
+  </si>
+  <si>
     <t>entertaining</t>
   </si>
   <si>
+    <t>sweat</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -2342,34 +2397,214 @@
     <t>concrete</t>
   </si>
   <si>
+    <t>internet cafe</t>
+  </si>
+  <si>
     <t>farecard</t>
   </si>
   <si>
+    <t>hot spring</t>
+  </si>
+  <si>
+    <t>foggy</t>
+  </si>
+  <si>
     <t>stay tuned</t>
   </si>
   <si>
+    <t>natural hot spring</t>
+  </si>
+  <si>
+    <t>liver</t>
+  </si>
+  <si>
     <t xml:space="preserve"> attention</t>
   </si>
   <si>
+    <t>大澡堂</t>
+  </si>
+  <si>
+    <t>violent reaction</t>
+  </si>
+  <si>
     <t>token booth</t>
   </si>
   <si>
+    <t>public bath</t>
+  </si>
+  <si>
+    <t>organize</t>
+  </si>
+  <si>
     <t>turnstile</t>
   </si>
   <si>
+    <t>flowing</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
     <t>wacky</t>
   </si>
   <si>
+    <t>inquire</t>
+  </si>
+  <si>
+    <t>sashimi</t>
+  </si>
+  <si>
     <t>arrange</t>
   </si>
   <si>
+    <t xml:space="preserve">inquire - v </t>
+  </si>
+  <si>
+    <t>the early bird catches the worm</t>
+  </si>
+  <si>
     <t>cabbie</t>
   </si>
   <si>
+    <t>inquiry - n</t>
+  </si>
+  <si>
+    <t>fine dining</t>
+  </si>
+  <si>
     <t>fare</t>
   </si>
   <si>
+    <t>fully vaccinated</t>
+  </si>
+  <si>
+    <t>fancy restaurants</t>
+  </si>
+  <si>
     <t>hail a cab</t>
+  </si>
+  <si>
+    <t>free trial</t>
+  </si>
+  <si>
+    <t>kindergarten</t>
+  </si>
+  <si>
+    <t>10 bucks</t>
+  </si>
+  <si>
+    <t>draught beer</t>
+  </si>
+  <si>
+    <t>role play</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>vomit</t>
+  </si>
+  <si>
+    <t>make fun of sth</t>
+  </si>
+  <si>
+    <t>rapids</t>
+  </si>
+  <si>
+    <t>unreasonable</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>it's on me</t>
+  </si>
+  <si>
+    <t>snorkelling</t>
+  </si>
+  <si>
+    <t>insist</t>
+  </si>
+  <si>
+    <t>seasick</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>directions</t>
+  </si>
+  <si>
+    <t>afraid of heights</t>
+  </si>
+  <si>
+    <t>21st century = twenty first</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Nokia 3210</t>
+  </si>
+  <si>
+    <t>better safe than sorry</t>
+  </si>
+  <si>
+    <t>remote places</t>
+  </si>
+  <si>
+    <t>exclude</t>
+  </si>
+  <si>
+    <t>unsteady</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMW </t>
+  </si>
+  <si>
+    <t>summary - n</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>summarize - v</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>to sum it up</t>
+  </si>
+  <si>
+    <t>homestay</t>
+  </si>
+  <si>
+    <t>chit-chat</t>
+  </si>
+  <si>
+    <t>unbelievably slow</t>
+  </si>
+  <si>
+    <t>coffee break</t>
+  </si>
+  <si>
+    <t>throw - threw</t>
+  </si>
+  <si>
+    <t>tongue twister</t>
+  </si>
+  <si>
+    <t>standing ovation</t>
+  </si>
+  <si>
+    <t>clap</t>
   </si>
 </sst>
 </file>
@@ -2377,10 +2612,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2405,22 +2640,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2435,39 +2723,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2503,30 +2769,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -2536,13 +2778,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2578,6 +2813,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2590,7 +2897,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2602,19 +2933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2626,91 +2945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2722,25 +2957,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2758,7 +2975,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2783,6 +3018,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2837,32 +3098,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2877,10 +3112,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2889,133 +3124,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3380,10 +3615,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4545,7 +4780,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>338</v>
       </c>
@@ -4564,240 +4799,517 @@
       <c r="F54" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F55" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>348</v>
+      </c>
+      <c r="G55" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C56" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
+      </c>
+      <c r="E56" t="s">
+        <v>354</v>
       </c>
       <c r="F56" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>355</v>
+      </c>
+      <c r="G56" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C57" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
+      </c>
+      <c r="E57" t="s">
+        <v>360</v>
       </c>
       <c r="F57" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>361</v>
+      </c>
+      <c r="G57" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C58" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
+      </c>
+      <c r="E58" t="s">
+        <v>367</v>
       </c>
       <c r="F58" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>368</v>
+      </c>
+      <c r="G58" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C59" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
+      </c>
+      <c r="E59" t="s">
+        <v>374</v>
       </c>
       <c r="F59" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>375</v>
+      </c>
+      <c r="G59" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>331</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D60" t="s">
-        <v>369</v>
+        <v>379</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="F60" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>381</v>
+      </c>
+      <c r="G60" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D61" t="s">
-        <v>373</v>
+        <v>385</v>
+      </c>
+      <c r="E61" t="s">
+        <v>386</v>
       </c>
       <c r="F61" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>387</v>
+      </c>
+      <c r="G61" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="D62" t="s">
-        <v>378</v>
+        <v>392</v>
+      </c>
+      <c r="E62" t="s">
+        <v>393</v>
       </c>
       <c r="F62" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>394</v>
+      </c>
+      <c r="G62" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E63" s="1"/>
+        <v>398</v>
+      </c>
+      <c r="E63" t="s">
+        <v>399</v>
+      </c>
       <c r="F63" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>400</v>
+      </c>
+      <c r="G63" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E64" s="1"/>
+        <v>404</v>
+      </c>
+      <c r="E64" t="s">
+        <v>405</v>
+      </c>
       <c r="F64" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>406</v>
+      </c>
+      <c r="G64" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="E65" t="s">
+        <v>408</v>
+      </c>
       <c r="F65" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>409</v>
+      </c>
+      <c r="G65" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="E66" t="s">
+        <v>411</v>
+      </c>
       <c r="F66" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>412</v>
+      </c>
+      <c r="G66" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
+      <c r="E67" t="s">
+        <v>414</v>
+      </c>
       <c r="F67" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>415</v>
+      </c>
+      <c r="G67" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
+      <c r="E68" t="s">
+        <v>417</v>
+      </c>
       <c r="F68" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>418</v>
+      </c>
+      <c r="G68" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
+      <c r="E69" t="s">
+        <v>420</v>
+      </c>
       <c r="F69" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>421</v>
+      </c>
+      <c r="G69" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
+      <c r="E70" t="s">
+        <v>423</v>
+      </c>
       <c r="F70" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>424</v>
+      </c>
+      <c r="G70" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
+      <c r="E71" t="s">
+        <v>426</v>
+      </c>
       <c r="F71" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>427</v>
+      </c>
+      <c r="G71" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
+      <c r="E72" t="s">
+        <v>429</v>
+      </c>
       <c r="F72" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>430</v>
+      </c>
+      <c r="G72" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1"/>
+      <c r="E73" t="s">
+        <v>432</v>
+      </c>
       <c r="F73" t="s">
-        <v>396</v>
+        <v>433</v>
+      </c>
+      <c r="G73" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7">
+      <c r="E74" t="s">
+        <v>435</v>
+      </c>
+      <c r="G74" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7">
+      <c r="E75" t="s">
+        <v>437</v>
+      </c>
+      <c r="G75" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7">
+      <c r="E76" t="s">
+        <v>439</v>
+      </c>
+      <c r="G76" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7">
+      <c r="E77" t="s">
+        <v>441</v>
+      </c>
+      <c r="G77" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7">
+      <c r="E78" t="s">
+        <v>443</v>
+      </c>
+      <c r="G78" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7">
+      <c r="E79" t="s">
+        <v>445</v>
+      </c>
+      <c r="G79" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7">
+      <c r="E80" t="s">
+        <v>447</v>
+      </c>
+      <c r="G80" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7">
+      <c r="E81" t="s">
+        <v>144</v>
+      </c>
+      <c r="G81" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7">
+      <c r="E82" t="s">
+        <v>450</v>
+      </c>
+      <c r="G82" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7">
+      <c r="E83" t="s">
+        <v>452</v>
+      </c>
+      <c r="G83" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7">
+      <c r="E84" t="s">
+        <v>454</v>
+      </c>
+      <c r="G84" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7">
+      <c r="E85" t="s">
+        <v>456</v>
+      </c>
+      <c r="G85" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7">
+      <c r="E86" t="s">
+        <v>458</v>
+      </c>
+      <c r="G86" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7">
+      <c r="E87" t="s">
+        <v>460</v>
+      </c>
+      <c r="G87" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7">
+      <c r="E88" t="s">
+        <v>462</v>
+      </c>
+      <c r="G88" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7">
+      <c r="E89" t="s">
+        <v>464</v>
+      </c>
+      <c r="G89" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7">
+      <c r="E90" t="s">
+        <v>466</v>
+      </c>
+      <c r="G90" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7">
+      <c r="E91" t="s">
+        <v>468</v>
+      </c>
+      <c r="G91" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7">
+      <c r="E92" t="s">
+        <v>470</v>
+      </c>
+      <c r="G92" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="93" spans="7:7">
+      <c r="G93" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="94" spans="7:7">
+      <c r="G94" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="95" spans="7:7">
+      <c r="G95" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -4805,4 +5317,416 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="J5:J83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="5" spans="10:10">
+      <c r="J5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="10:10">
+      <c r="J6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="10:10">
+      <c r="J7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="10:10">
+      <c r="J8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="10:10">
+      <c r="J9" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="10:10">
+      <c r="J10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="10:10">
+      <c r="J11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="10:10">
+      <c r="J12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="10:10">
+      <c r="J13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="10:10">
+      <c r="J14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="10:10">
+      <c r="J15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="10:10">
+      <c r="J16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10">
+      <c r="J23" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="10:10">
+      <c r="J24" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="10:10">
+      <c r="J25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="10:10">
+      <c r="J26" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="10:10">
+      <c r="J27" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="10:10">
+      <c r="J28" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="10:10">
+      <c r="J29" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="30" spans="10:10">
+      <c r="J30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="10:10">
+      <c r="J31" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="10:10">
+      <c r="J32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10">
+      <c r="J35" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10">
+      <c r="J36" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" spans="10:10">
+      <c r="J37" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10">
+      <c r="J38" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="39" spans="10:10">
+      <c r="J39" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="40" spans="10:10">
+      <c r="J40" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="41" spans="10:10">
+      <c r="J41" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="10:10">
+      <c r="J42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="10:10">
+      <c r="J43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="10:10">
+      <c r="J44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="10:10">
+      <c r="J45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="10:10">
+      <c r="J46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47" spans="10:10">
+      <c r="J47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48" spans="10:10">
+      <c r="J48" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10">
+      <c r="J49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10">
+      <c r="J51" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10">
+      <c r="J52" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55" spans="10:10">
+      <c r="J55" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" spans="10:10">
+      <c r="J56" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="57" spans="10:10">
+      <c r="J57" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="10:10">
+      <c r="J58" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="59" spans="10:10">
+      <c r="J59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="60" spans="10:10">
+      <c r="J60" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="61" spans="10:10">
+      <c r="J61" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="62" spans="10:10">
+      <c r="J62" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="63" spans="10:10">
+      <c r="J63" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="64" spans="10:10">
+      <c r="J64" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="10:10">
+      <c r="J65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66" spans="10:10">
+      <c r="J66" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67" spans="10:10">
+      <c r="J67" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="68" spans="10:10">
+      <c r="J68" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="69" spans="10:10">
+      <c r="J69" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70" spans="10:10">
+      <c r="J70" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="71" spans="10:10">
+      <c r="J71" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="72" spans="10:10">
+      <c r="J72" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="73" spans="10:10">
+      <c r="J73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="74" spans="10:10">
+      <c r="J74" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="75" spans="10:10">
+      <c r="J75" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="76" spans="10:10">
+      <c r="J76" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="77" spans="10:10">
+      <c r="J77" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="78" spans="10:10">
+      <c r="J78" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="79" spans="10:10">
+      <c r="J79" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="80" spans="10:10">
+      <c r="J80" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10">
+      <c r="J81" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10">
+      <c r="J82" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10">
+      <c r="J83" t="s">
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>